--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019847_Event_29.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019847_Event_29.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +518,53 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75.30651146382684</v>
+        <v>75.38176588545829</v>
+      </c>
+      <c r="C2" t="n">
+        <v>75.38176588545829</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-42.34797661196777</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.28309691036872</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02763900235861595</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01613671020070111</v>
       </c>
     </row>
     <row r="3">
@@ -456,1785 +572,1437 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74.57453878845109</v>
-      </c>
+        <v>75.30651146382684</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.61377660430715</v>
-      </c>
+        <v>74.57453878845109</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>74.26403517065019</v>
-      </c>
+        <v>74.61377660430715</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74.39413386800616</v>
-      </c>
+        <v>74.26403517065019</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75.13672707216004</v>
-      </c>
+        <v>74.39413386800616</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74.98844263429255</v>
-      </c>
+        <v>75.13672707216004</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75.63352979491751</v>
-      </c>
+        <v>74.98844263429255</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76.08238853809506</v>
-      </c>
+        <v>75.63352979491751</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.09599770392845</v>
-      </c>
+        <v>76.08238853809506</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77.17330779635049</v>
-      </c>
+        <v>77.09599770392845</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>78.25429955220466</v>
-      </c>
+        <v>77.17330779635049</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>78.47106661515591</v>
-      </c>
+        <v>78.25429955220466</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>78.62717077696972</v>
-      </c>
+        <v>78.47106661515591</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>78.46698160018488</v>
-      </c>
+        <v>78.62717077696972</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>78.11953662430152</v>
-      </c>
+        <v>78.46698160018488</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.95004276178807</v>
-      </c>
+        <v>78.11953662430152</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>76.81218991068117</v>
-      </c>
+        <v>77.95004276178807</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>76.59835839823812</v>
-      </c>
+        <v>76.81218991068117</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>74.61866240004544</v>
-      </c>
+        <v>76.59835839823812</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.45652956233675</v>
-      </c>
+        <v>74.61866240004544</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>72.2661181903658</v>
-      </c>
+        <v>74.45652956233675</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>72.07615935913046</v>
-      </c>
+        <v>72.2661181903658</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>69.57794055672819</v>
-      </c>
+        <v>72.07615935913046</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>69.46557212577329</v>
-      </c>
+        <v>69.57794055672819</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.53732713279629</v>
-      </c>
+        <v>69.46557212577329</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.35338478733971</v>
-      </c>
+        <v>66.53732713279629</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>63.96596809235742</v>
-      </c>
+        <v>66.35338478733971</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>63.75996755846923</v>
-      </c>
+        <v>63.96596809235742</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>60.12664579624434</v>
-      </c>
+        <v>63.75996755846923</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>60.08867303790479</v>
-      </c>
+        <v>60.12664579624434</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>56.78007600418746</v>
-      </c>
+        <v>60.08867303790479</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>56.70253769437071</v>
-      </c>
+        <v>56.78007600418746</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53.27519288376379</v>
-      </c>
+        <v>56.70253769437071</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>53.22011296117138</v>
-      </c>
+        <v>53.27519288376379</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50.20087114231023</v>
-      </c>
+        <v>53.22011296117138</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49.9902883371791</v>
-      </c>
+        <v>50.20087114231023</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>47.15414096603663</v>
-      </c>
+        <v>49.9902883371791</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47.11804070551674</v>
-      </c>
+        <v>47.15414096603663</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.10546328178464</v>
-      </c>
+        <v>47.11804070551674</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>44.02899410714692</v>
-      </c>
+        <v>44.10546328178464</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>39.27905245268921</v>
-      </c>
+        <v>44.02899410714692</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>39.06678945236988</v>
-      </c>
+        <v>39.27905245268921</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>35.92652343872338</v>
-      </c>
+        <v>39.06678945236988</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>35.80792098211258</v>
-      </c>
+        <v>35.92652343872338</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>33.00079216199221</v>
-      </c>
+        <v>35.80792098211258</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>32.88923589401784</v>
-      </c>
+        <v>33.00079216199221</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.27901002514556</v>
-      </c>
+        <v>32.88923589401784</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.22043686197547</v>
-      </c>
+        <v>30.27901002514556</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.91096920588502</v>
-      </c>
+        <v>30.22043686197547</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.84602756350896</v>
-      </c>
+        <v>26.91096920588502</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.35206015900588</v>
-      </c>
+        <v>26.84602756350896</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.48953206467893</v>
-      </c>
+        <v>23.35206015900588</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20.28309691036872</v>
-      </c>
+        <v>23.48953206467893</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.28883970558823</v>
-      </c>
+        <v>20.28309691036872</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16.56808350023769</v>
-      </c>
+        <v>20.28883970558823</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16.73005738686981</v>
-      </c>
+        <v>16.56808350023769</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.05976600889801</v>
-      </c>
+        <v>16.73005738686981</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.0961257587478</v>
-      </c>
+        <v>13.05976600889801</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.6742244120185</v>
-      </c>
+        <v>13.0961257587478</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.632737375915363</v>
-      </c>
+        <v>9.6742244120185</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.962169550235323</v>
-      </c>
+        <v>9.632737375915363</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.023222957034958</v>
-      </c>
+        <v>5.962169550235323</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.32825044128318</v>
-      </c>
+        <v>6.023222957034958</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.416545700414734</v>
-      </c>
+        <v>2.32825044128318</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.457582000244642</v>
-      </c>
+        <v>2.416545700414734</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.384068342729113</v>
-      </c>
+        <v>-2.457582000244642</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-8.087691461254229</v>
-      </c>
+        <v>-2.384068342729113</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-8.085541716734086</v>
-      </c>
+        <v>-8.087691461254229</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-12.21682409426139</v>
-      </c>
+        <v>-8.085541716734086</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-12.12765758685895</v>
-      </c>
+        <v>-12.21682409426139</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-17.70838580746139</v>
-      </c>
+        <v>-12.12765758685895</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-17.67577808779441</v>
-      </c>
+        <v>-17.70838580746139</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-21.48377657588017</v>
-      </c>
+        <v>-17.67577808779441</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-21.45578866501279</v>
-      </c>
+        <v>-21.48377657588017</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-24.94204953427167</v>
-      </c>
+        <v>-21.45578866501279</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-24.99735545638426</v>
-      </c>
+        <v>-24.94204953427167</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-27.97797360689981</v>
-      </c>
+        <v>-24.99735545638426</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-27.89702552648115</v>
-      </c>
+        <v>-27.97797360689981</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-31.9378185580176</v>
-      </c>
+        <v>-27.89702552648115</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-31.93951991215948</v>
-      </c>
+        <v>-31.9378185580176</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-35.58125037689319</v>
-      </c>
+        <v>-31.93951991215948</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-35.69231689054278</v>
-      </c>
+        <v>-35.58125037689319</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-38.74238779828674</v>
-      </c>
+        <v>-35.69231689054278</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-38.9258874091766</v>
-      </c>
+        <v>-38.74238779828674</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-40.95216719132164</v>
-      </c>
+        <v>-38.9258874091766</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-40.94112883272275</v>
-      </c>
+        <v>-40.95216719132164</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-41.73058066083733</v>
-      </c>
+        <v>-40.94112883272275</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-41.66601873141836</v>
-      </c>
+        <v>-41.73058066083733</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-42.89607685300539</v>
-      </c>
+        <v>-41.66601873141836</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-42.90756992817417</v>
-      </c>
+        <v>-42.89607685300539</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-43.88104595376762</v>
-      </c>
+        <v>-42.90756992817417</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-43.84279084806247</v>
-      </c>
+        <v>-43.88104595376762</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-44.24510751676804</v>
-      </c>
+        <v>-43.84279084806247</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-44.2226564073767</v>
-      </c>
+        <v>-44.24510751676804</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-44.72718718403161</v>
-      </c>
+        <v>-44.2226564073767</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-44.65948579802623</v>
-      </c>
+        <v>-44.72718718403161</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-43.96886828134947</v>
-      </c>
+        <v>-44.65948579802623</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-43.99851445326863</v>
-      </c>
+        <v>-43.96886828134947</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-44.40053213063058</v>
-      </c>
+        <v>-43.99851445326863</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-44.3759683833152</v>
-      </c>
+        <v>-44.40053213063058</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-45.47886010299217</v>
-      </c>
+        <v>-44.3759683833152</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-45.3968103906988</v>
-      </c>
+        <v>-45.47886010299217</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-44.83840640865602</v>
-      </c>
+        <v>-45.3968103906988</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-44.88996813733444</v>
-      </c>
+        <v>-44.83840640865602</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-44.19133889183751</v>
-      </c>
+        <v>-44.88996813733444</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-44.12004213851477</v>
-      </c>
+        <v>-44.19133889183751</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-43.68158231149655</v>
-      </c>
+        <v>-44.12004213851477</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-43.59362355611322</v>
-      </c>
+        <v>-43.68158231149655</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>-43.59362355611322</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>-42.34797661196777</v>
       </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B111"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-59.37320845252334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-58.16097712811927</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-58.15256055321001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-57.09907824440526</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-56.99804483146524</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-56.30686457993707</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-56.32783259445604</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-55.89968445247759</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-55.95574719492593</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-55.8739712365219</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-55.84824580864503</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-55.82140679332474</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-55.71954844120856</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-55.38657186284684</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-55.41368418660239</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-54.88854588608307</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-54.83609452532765</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-54.2717254155345</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-54.17090867028332</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-53.26325728455715</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-53.22267567299189</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-51.99533184400867</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-51.90804374333634</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-50.46511909983113</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-50.44627086076579</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-48.83433975955687</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-48.79529737018024</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-46.8129797800401</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-46.74405708852597</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-44.35566876828182</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-44.36268902298065</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-42.38000613080843</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-42.35721165603742</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-40.06499362021378</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-40.01690507555187</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-37.98322555504664</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-37.88274207594952</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-35.85902216432537</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-35.85994173406296</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-33.45585544949805</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-33.40082112409996</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-30.69018284295877</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-30.58295180597593</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-28.11511872661275</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-27.98741936315479</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-25.66551199720531</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-25.54540900073629</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-23.14942158778262</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-23.06551897756215</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-20.34233103407117</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-20.26829467638434</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-17.57482394213587</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-17.52227724475525</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-14.59079966640543</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-14.49026269405677</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-11.62345752864216</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-11.59881318424432</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-8.657479622915211</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-8.689462847555069</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-5.608205772529643</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-5.575034660168757</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-1.826188862838002</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-1.825370827963815</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1.658456710548982</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.715276221984923</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>6.039468112582744</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>8.168292530418093</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>13.43240668486361</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12.82495549251136</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>17.15219054349051</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>17.16188253291497</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>21.3537855458827</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>21.41190960019084</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>24.42341609667651</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>24.46669712593084</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>28.66172523517582</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>28.56331651921367</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>32.12690903237623</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>31.89065702762553</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>35.23639784537417</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>35.23014827219852</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>37.8817258692871</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>38.02120009756726</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>41.43777499828302</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>41.47891074611606</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>44.19493960712529</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>44.18855398948973</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>45.51103746126606</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>45.51188757407777</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>46.31338411439712</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>46.35827235792577</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>46.71120276077495</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>46.701359122655</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>46.55563858932545</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>46.48981862659394</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>46.18356267331117</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>46.17799216892065</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>45.84959684003667</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>45.85733347071782</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>45.92858750055586</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>45.94177697015473</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>46.42649816328993</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>46.33782996758374</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>46.44036962818839</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>46.45995434434402</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>46.18834488068524</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>46.16863955514524</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>45.93309377137351</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>45.87380556781531</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>45.40826816413187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75.30651146382684</v>
+        <v>75.38176588545829</v>
       </c>
     </row>
     <row r="3">
@@ -2268,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74.61377660430715</v>
+        <v>74.57453878845109</v>
       </c>
     </row>
     <row r="4">
@@ -2276,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.39413386800616</v>
+        <v>74.26403517065019</v>
       </c>
     </row>
     <row r="5">
@@ -2284,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75.13672707216004</v>
+        <v>74.39413386800616</v>
       </c>
     </row>
     <row r="6">
@@ -2292,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75.63352979491751</v>
+        <v>74.98844263429255</v>
       </c>
     </row>
     <row r="7">
@@ -2300,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77.09599770392845</v>
+        <v>76.08238853809506</v>
       </c>
     </row>
     <row r="8">
@@ -2308,7 +2076,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78.25429955220466</v>
+        <v>77.17330779635049</v>
       </c>
     </row>
     <row r="9">
@@ -2316,7 +2084,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78.47106661515591</v>
+        <v>78.25429955220466</v>
       </c>
     </row>
     <row r="10">
@@ -2324,7 +2092,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78.46698160018488</v>
+        <v>78.62717077696972</v>
       </c>
     </row>
     <row r="11">
@@ -2332,7 +2100,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.95004276178807</v>
+        <v>78.11953662430152</v>
       </c>
     </row>
     <row r="12">
@@ -2340,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76.59835839823812</v>
+        <v>76.81218991068117</v>
       </c>
     </row>
     <row r="13">
@@ -2356,7 +2124,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>72.2661181903658</v>
+        <v>74.45652956233675</v>
       </c>
     </row>
     <row r="15">
@@ -2364,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>69.57794055672819</v>
+        <v>72.07615935913046</v>
       </c>
     </row>
     <row r="16">
@@ -2372,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66.53732713279629</v>
+        <v>69.46557212577329</v>
       </c>
     </row>
     <row r="17">
@@ -2380,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>63.96596809235742</v>
+        <v>66.35338478733971</v>
       </c>
     </row>
     <row r="18">
@@ -2388,7 +2156,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>63.75996755846923</v>
+        <v>63.96596809235742</v>
       </c>
     </row>
     <row r="19">
@@ -2396,7 +2164,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>60.08867303790479</v>
+        <v>60.12664579624434</v>
       </c>
     </row>
     <row r="20">
@@ -2404,7 +2172,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>56.70253769437071</v>
+        <v>56.78007600418746</v>
       </c>
     </row>
     <row r="21">
@@ -2412,7 +2180,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>53.22011296117138</v>
+        <v>53.27519288376379</v>
       </c>
     </row>
     <row r="22">
@@ -2428,7 +2196,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47.15414096603663</v>
+        <v>49.9902883371791</v>
       </c>
     </row>
     <row r="24">
@@ -2436,7 +2204,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.10546328178464</v>
+        <v>47.11804070551674</v>
       </c>
     </row>
     <row r="25">
@@ -2444,7 +2212,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>39.27905245268921</v>
+        <v>44.02899410714692</v>
       </c>
     </row>
     <row r="26">
@@ -2460,7 +2228,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35.80792098211258</v>
+        <v>35.92652343872338</v>
       </c>
     </row>
     <row r="28">
@@ -2468,7 +2236,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32.88923589401784</v>
+        <v>33.00079216199221</v>
       </c>
     </row>
     <row r="29">
@@ -2476,7 +2244,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.22043686197547</v>
+        <v>30.27901002514556</v>
       </c>
     </row>
     <row r="30">
@@ -2484,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.84602756350896</v>
+        <v>26.91096920588502</v>
       </c>
     </row>
     <row r="31">
@@ -2500,7 +2268,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20.28309691036872</v>
+        <v>23.48953206467893</v>
       </c>
     </row>
     <row r="33">
@@ -2508,7 +2276,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.56808350023769</v>
+        <v>20.28883970558823</v>
       </c>
     </row>
     <row r="34">
@@ -2516,7 +2284,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.05976600889801</v>
+        <v>16.73005738686981</v>
       </c>
     </row>
     <row r="35">
@@ -2540,7 +2308,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.023222957034958</v>
+        <v>5.962169550235323</v>
       </c>
     </row>
     <row r="38">
@@ -2548,7 +2316,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.416545700414734</v>
+        <v>2.32825044128318</v>
       </c>
     </row>
     <row r="39">
@@ -2572,7 +2340,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-12.21682409426139</v>
+        <v>-8.085541716734086</v>
       </c>
     </row>
     <row r="42">
@@ -2580,7 +2348,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-17.70838580746139</v>
+        <v>-12.12765758685895</v>
       </c>
     </row>
     <row r="43">
@@ -2588,7 +2356,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-21.48377657588017</v>
+        <v>-17.67577808779441</v>
       </c>
     </row>
     <row r="44">
@@ -2612,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-27.89702552648115</v>
+        <v>-27.97797360689981</v>
       </c>
     </row>
     <row r="47">
@@ -2620,7 +2388,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-31.93951991215948</v>
+        <v>-31.9378185580176</v>
       </c>
     </row>
     <row r="48">
@@ -2644,7 +2412,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-40.95216719132164</v>
+        <v>-38.9258874091766</v>
       </c>
     </row>
     <row r="51">
@@ -2652,7 +2420,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-41.73058066083733</v>
+        <v>-40.94112883272275</v>
       </c>
     </row>
     <row r="52">
@@ -2684,7 +2452,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-44.2226564073767</v>
+        <v>-44.24510751676804</v>
       </c>
     </row>
     <row r="56">
@@ -2692,7 +2460,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-44.65948579802623</v>
+        <v>-44.72718718403161</v>
       </c>
     </row>
     <row r="57">
@@ -2716,7 +2484,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-45.47886010299217</v>
+        <v>-44.3759683833152</v>
       </c>
     </row>
     <row r="60">
@@ -2724,7 +2492,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-44.83840640865602</v>
+        <v>-45.3968103906988</v>
       </c>
     </row>
     <row r="61">
@@ -2756,7 +2524,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-42.34307055367968</v>
+        <v>-42.34797661196777</v>
       </c>
     </row>
     <row r="65">
@@ -2764,7 +2532,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-41.50322343324178</v>
+        <v>-41.69279427778641</v>
       </c>
     </row>
     <row r="66">
@@ -2788,7 +2556,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-31.53850704307365</v>
+        <v>-35.94376862684661</v>
       </c>
     </row>
     <row r="69">
@@ -2796,7 +2564,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-25.88627583348846</v>
+        <v>-31.69560703143134</v>
       </c>
     </row>
     <row r="70">
@@ -2828,7 +2596,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8735242345357305</v>
+        <v>0.8508435329907106</v>
       </c>
     </row>
     <row r="74">
@@ -2868,7 +2636,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>51.89124223461216</v>
+        <v>43.24348584202659</v>
       </c>
     </row>
     <row r="79">
@@ -2900,7 +2668,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.41413900901325</v>
+        <v>72.29757780068009</v>
       </c>
     </row>
     <row r="83">
@@ -2972,7 +2740,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>87.46227278024679</v>
+        <v>87.50769382342925</v>
       </c>
     </row>
     <row r="92">
@@ -3068,7 +2836,1275 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-59.42892450690425</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-59.42892450690425</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.40826816413187</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-14.49026269405677</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-59.37320845252334</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-58.16097712811927</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-58.15256055321001</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-57.09907824440526</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-56.99804483146524</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-56.30686457993707</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-56.32783259445604</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-55.89968445247759</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-55.95574719492593</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-55.8739712365219</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-55.84824580864503</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-55.82140679332474</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-55.71954844120856</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-55.38657186284684</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-55.41368418660239</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-54.88854588608307</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-54.83609452532765</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-54.2717254155345</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-54.17090867028332</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-53.26325728455715</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-53.22267567299189</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-51.99533184400867</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-51.90804374333634</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-50.46511909983113</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-50.44627086076579</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-48.83433975955687</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-48.79529737018024</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-46.8129797800401</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-46.74405708852597</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-44.35566876828182</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-44.36268902298065</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-42.38000613080843</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-42.35721165603742</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-40.06499362021378</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-40.01690507555187</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-37.98322555504664</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-37.88274207594952</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-35.85902216432537</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-35.85994173406296</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-33.45585544949805</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-33.40082112409996</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-30.69018284295877</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-30.58295180597593</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-28.11511872661275</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-27.98741936315479</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-25.66551199720531</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-25.54540900073629</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-23.14942158778262</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-23.06551897756215</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-20.34233103407117</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-20.26829467638434</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-17.57482394213587</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-17.52227724475525</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-14.59079966640543</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-14.49026269405677</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-11.62345752864216</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-11.59881318424432</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-8.657479622915211</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-8.689462847555069</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-5.608205772529643</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-5.575034660168757</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-1.826188862838002</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-1.825370827963815</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.658456710548982</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.715276221984923</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6.039468112582744</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8.168292530418093</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>13.43240668486361</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12.82495549251136</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>17.15219054349051</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17.16188253291497</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>21.3537855458827</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>21.41190960019084</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>24.42341609667651</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>24.46669712593084</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>28.66172523517582</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>28.56331651921367</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>32.12690903237623</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>31.89065702762553</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>35.23639784537417</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>35.23014827219852</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>37.8817258692871</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>38.02120009756726</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>41.43777499828302</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>41.47891074611606</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>44.19493960712529</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>44.18855398948973</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>45.51103746126606</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>45.51188757407777</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>46.31338411439712</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>46.35827235792577</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>46.71120276077495</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>46.701359122655</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>46.55563858932545</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>46.48981862659394</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>46.18356267331117</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>46.17799216892065</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>45.84959684003667</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>45.85733347071782</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>45.92858750055586</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>45.94177697015473</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>46.42649816328993</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>46.33782996758374</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>46.44036962818839</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>46.45995434434402</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>46.18834488068524</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>46.16863955514524</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>45.93309377137351</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>45.87380556781531</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>45.40826816413187</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3094,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-59.37320845252334</v>
+        <v>-59.42892450690425</v>
       </c>
     </row>
     <row r="3">
@@ -3102,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-58.15256055321001</v>
+        <v>-58.16097712811927</v>
       </c>
     </row>
     <row r="4">
@@ -3110,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-56.99804483146524</v>
+        <v>-57.09907824440526</v>
       </c>
     </row>
     <row r="5">
@@ -3118,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-56.30686457993707</v>
+        <v>-56.99804483146524</v>
       </c>
     </row>
     <row r="6">
@@ -3126,7 +4162,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-55.89968445247759</v>
+        <v>-56.32783259445604</v>
       </c>
     </row>
     <row r="7">
@@ -3134,7 +4170,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-55.8739712365219</v>
+        <v>-55.95574719492593</v>
       </c>
     </row>
     <row r="8">
@@ -3142,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-55.82140679332474</v>
+        <v>-55.84824580864503</v>
       </c>
     </row>
     <row r="9">
@@ -3150,7 +4186,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.71954844120856</v>
+        <v>-55.82140679332474</v>
       </c>
     </row>
     <row r="10">
@@ -3158,7 +4194,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-55.41368418660239</v>
+        <v>-55.38657186284684</v>
       </c>
     </row>
     <row r="11">
@@ -3166,7 +4202,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-54.83609452532765</v>
+        <v>-54.88854588608307</v>
       </c>
     </row>
     <row r="12">
@@ -3174,7 +4210,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-54.17090867028332</v>
+        <v>-54.2717254155345</v>
       </c>
     </row>
     <row r="13">
@@ -3190,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-51.99533184400867</v>
+        <v>-53.22267567299189</v>
       </c>
     </row>
     <row r="15">
@@ -3198,7 +4234,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-50.46511909983113</v>
+        <v>-51.90804374333634</v>
       </c>
     </row>
     <row r="16">
@@ -3206,7 +4242,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-48.83433975955687</v>
+        <v>-50.44627086076579</v>
       </c>
     </row>
     <row r="17">
@@ -3214,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-46.8129797800401</v>
+        <v>-48.79529737018024</v>
       </c>
     </row>
     <row r="18">
@@ -3222,7 +4258,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-46.74405708852597</v>
+        <v>-46.8129797800401</v>
       </c>
     </row>
     <row r="19">
@@ -3230,7 +4266,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-44.36268902298065</v>
+        <v>-44.35566876828182</v>
       </c>
     </row>
     <row r="20">
@@ -3238,7 +4274,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-42.35721165603742</v>
+        <v>-42.38000613080843</v>
       </c>
     </row>
     <row r="21">
@@ -3246,7 +4282,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-40.01690507555187</v>
+        <v>-40.06499362021378</v>
       </c>
     </row>
     <row r="22">
@@ -3262,7 +4298,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-35.85902216432537</v>
+        <v>-37.88274207594952</v>
       </c>
     </row>
     <row r="24">
@@ -3270,7 +4306,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-33.45585544949805</v>
+        <v>-35.85994173406296</v>
       </c>
     </row>
     <row r="25">
@@ -3278,7 +4314,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-30.69018284295877</v>
+        <v>-33.40082112409996</v>
       </c>
     </row>
     <row r="26">
@@ -3294,7 +4330,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-27.98741936315479</v>
+        <v>-28.11511872661275</v>
       </c>
     </row>
     <row r="28">
@@ -3302,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-25.54540900073629</v>
+        <v>-25.66551199720531</v>
       </c>
     </row>
     <row r="29">
@@ -3310,7 +4346,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-23.06551897756215</v>
+        <v>-23.14942158778262</v>
       </c>
     </row>
     <row r="30">
@@ -3318,7 +4354,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-20.26829467638434</v>
+        <v>-20.34233103407117</v>
       </c>
     </row>
     <row r="31">
@@ -3334,7 +4370,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-14.59079966640543</v>
+        <v>-17.52227724475525</v>
       </c>
     </row>
     <row r="33">
@@ -3342,7 +4378,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-11.62345752864216</v>
+        <v>-14.49026269405677</v>
       </c>
     </row>
     <row r="34">
@@ -3350,7 +4386,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-8.657479622915211</v>
+        <v>-11.59881318424432</v>
       </c>
     </row>
     <row r="35">
@@ -3374,7 +4410,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.825370827963815</v>
+        <v>-1.826188862838002</v>
       </c>
     </row>
     <row r="38">
@@ -3382,7 +4418,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.715276221984923</v>
+        <v>1.658456710548982</v>
       </c>
     </row>
     <row r="39">
@@ -3406,7 +4442,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17.15219054349051</v>
+        <v>12.82495549251136</v>
       </c>
     </row>
     <row r="42">
@@ -3414,7 +4450,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.3537855458827</v>
+        <v>17.16188253291497</v>
       </c>
     </row>
     <row r="43">
@@ -3422,7 +4458,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>24.42341609667651</v>
+        <v>21.41190960019084</v>
       </c>
     </row>
     <row r="44">
@@ -3446,7 +4482,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.89065702762553</v>
+        <v>32.12690903237623</v>
       </c>
     </row>
     <row r="47">
@@ -3454,7 +4490,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>35.23014827219852</v>
+        <v>35.23639784537417</v>
       </c>
     </row>
     <row r="48">
@@ -3478,7 +4514,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.19493960712529</v>
+        <v>41.47891074611606</v>
       </c>
     </row>
     <row r="51">
@@ -3486,7 +4522,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>45.51103746126606</v>
+        <v>44.18855398948973</v>
       </c>
     </row>
     <row r="52">
@@ -3518,7 +4554,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>46.48981862659394</v>
+        <v>46.55563858932545</v>
       </c>
     </row>
     <row r="56">
@@ -3526,7 +4562,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>46.17799216892065</v>
+        <v>46.18356267331117</v>
       </c>
     </row>
     <row r="57">
@@ -3550,7 +4586,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>46.42649816328993</v>
+        <v>45.94177697015473</v>
       </c>
     </row>
     <row r="60">
@@ -3558,7 +4594,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>46.44036962818839</v>
+        <v>46.33782996758374</v>
       </c>
     </row>
     <row r="61">
@@ -3590,7 +4626,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>45.4129781211724</v>
+        <v>45.40826816413187</v>
       </c>
     </row>
     <row r="65">
@@ -3598,7 +4634,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44.89172360391712</v>
+        <v>44.90228768783884</v>
       </c>
     </row>
     <row r="66">
@@ -3622,7 +4658,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41.34263085841935</v>
+        <v>42.9974191983294</v>
       </c>
     </row>
     <row r="69">
@@ -3630,7 +4666,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>38.26360706606097</v>
+        <v>41.33306243824619</v>
       </c>
     </row>
     <row r="70">
@@ -3662,7 +4698,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.69466081169719</v>
+        <v>25.80062809188439</v>
       </c>
     </row>
     <row r="74">
@@ -3702,7 +4738,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-4.111422331473324</v>
+        <v>-0.04688811562830925</v>
       </c>
     </row>
     <row r="79">
@@ -3734,7 +4770,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-15.71248846160163</v>
+        <v>-15.69861394308001</v>
       </c>
     </row>
     <row r="83">
@@ -3806,7 +4842,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-51.20428245473819</v>
+        <v>-51.21170240911873</v>
       </c>
     </row>
     <row r="92">
